--- a/internas.xlsx
+++ b/internas.xlsx
@@ -1,42 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38834BFD-BADD-4FB7-8CA7-A54FE55B09DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33309B23-557D-4BE2-A0CA-37F2AA306611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FDAD9FC-ABE5-4137-BD54-709B23F5FC8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66869CE5-DE32-471E-94BB-D78FF3330AD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="query (30)" sheetId="1" r:id="rId1"/>
+    <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__30" localSheetId="0" hidden="1">'query (30)'!$A$1:$G$13</definedName>
+    <definedName name="query__32" localSheetId="0" hidden="1">query!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{74A15280-DE7D-4109-BFD1-164658B76D57}" odcFile="C:\Users\thiago.junior\Downloads\query (30).iqy" keepAlive="1" name="query (30)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{E7BCEDDB-745B-4F9D-AD99-3A6AFD4C84F6}" odcFile="C:\Users\thiago.junior\Downloads\query (32).iqy" keepAlive="1" name="query (32)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;B6E86B80-A7B9-412C-ACAC-5CA09C789791&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;dab36273-850b-4961-b84d-87728bb8480d&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+  <si>
+    <t>Título</t>
+  </si>
   <si>
     <t>Descrição</t>
   </si>
@@ -48,6 +46,9 @@
   </si>
   <si>
     <t>Data fim</t>
+  </si>
+  <si>
+    <t>Analista</t>
   </si>
   <si>
     <t>Caminho</t>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>Cadastro de Ações</t>
+  </si>
+  <si>
+    <t>Larissa</t>
   </si>
   <si>
     <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
@@ -138,36 +142,12 @@
 (Dias - 05, 12, 19 e 26 do Mês de Dezembro 2025)
 Mecânica: 8% de cashback em Ipimax na troca de 700 pontos. </t>
   </si>
-  <si>
-    <t>Subida BKO</t>
-  </si>
-  <si>
-    <t>Estudos Gerais</t>
-  </si>
-  <si>
-    <t>Reunioes</t>
-  </si>
-  <si>
-    <t>Analista</t>
-  </si>
-  <si>
-    <t>Roberta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiago </t>
-  </si>
-  <si>
-    <t>Larissa</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,11 +624,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -694,7 +677,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -704,28 +687,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -742,32 +719,34 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (30)" backgroundRefresh="0" connectionId="1" xr16:uid="{27233B5B-EFE9-43F6-A29B-798BDF8E0837}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (32)" backgroundRefresh="0" connectionId="1" xr16:uid="{725AFFB7-6C1C-4A1C-9AD6-F370499C63E0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Título" tableColumnId="1"/>
       <queryTableField id="2" name="Descrição" tableColumnId="2"/>
       <queryTableField id="3" name="Categoria" tableColumnId="3"/>
       <queryTableField id="4" name="Data de início" tableColumnId="4"/>
       <queryTableField id="5" name="Data fim" tableColumnId="5"/>
-      <queryTableField id="7" name="Tipo de Item" tableColumnId="6"/>
-      <queryTableField id="6" name="Caminho" tableColumnId="7"/>
+      <queryTableField id="6" name="Analista" tableColumnId="6"/>
+      <queryTableField id="8" name="Tipo de Item" tableColumnId="7"/>
+      <queryTableField id="7" name="Caminho" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E984F38-55AB-4F5B-BA4B-1F4442560B34}" name="Tabela_query__30" displayName="Tabela_query__30" ref="A1:G13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G13" xr:uid="{1E984F38-55AB-4F5B-BA4B-1F4442560B34}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{30276947-1717-4301-8EAD-CF27E8F329B5}" uniqueName="Title" name="Analista" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{972F6C7F-502D-4C03-9236-8F41806C57C6}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{476C44D3-0208-40DC-9916-B655FF513DDC}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1187FFF9-59D3-42A6-80C1-3464B221F1D7}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AF3AAC2D-3065-4D18-A105-87AD1434A813}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{7C53F812-5879-4A08-98EB-0D734C11A17F}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{7CE94652-8DA7-4A02-A8D6-877DAEC02E82}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDD50298-DCB5-490E-9B6A-95F38654D794}" name="Tabela_query__32" displayName="Tabela_query__32" ref="A1:H9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{CDD50298-DCB5-490E-9B6A-95F38654D794}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FB40E93C-EF73-4F19-B8F8-A663D2DEA49B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9FB63203-B229-4CA5-90CE-8091DDD5F3D0}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5E7C4CBA-F630-49CF-8F76-898775EE4C6D}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{42C717CF-BB8E-42F2-8522-B16653D2AD22}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B9359620-7C6A-4AEF-9ED5-3A9B3EA20F00}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CBDE2F62-8D9F-4F82-9F91-38DDD41BBAEA}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{30623AE4-24F9-4C12-8AC2-C5C6BF329961}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C572A99D-ADFE-4DCC-A7A4-F09B73F127CE}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1089,310 +1068,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4112E3-E303-4007-9F9E-07A4E9FF3E0F}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D63EEB-7099-4831-BF8D-D0E9CA5B460A}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="1:8" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
         <v>46002.416666666664</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>46002.423611111109</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="4">
+        <v>46001.694444444445</v>
+      </c>
+      <c r="E3" s="4">
+        <v>46001.701388888891</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45995.625</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45995.631944444445</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>46001.694444444445</v>
-      </c>
-      <c r="E3" s="3">
-        <v>46001.701388888891</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="D5" s="4">
+        <v>45994.645833333336</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45994.652777777781</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45994.645833333336</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45994.652777777781</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45995.625</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45995.631944444445</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+      <c r="D7" s="4">
+        <v>45994.625</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45994.631944444445</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45994.625</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45994.631944444445</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45994.645833333336</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45994.652777777781</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45994.645833333336</v>
-      </c>
-      <c r="E6" s="3">
-        <v>45994.652777777781</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45994.625</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45994.631944444445</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45994.625</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45994.631944444445</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>45992.666666666664</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>45992.673611111109</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45993.666666608799</v>
-      </c>
-      <c r="E10" s="3">
-        <v>45993.673611053244</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45994.666666608799</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45994.673611053244</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45995.666666608799</v>
-      </c>
-      <c r="E12" s="3">
-        <v>45995.673611053244</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/internas.xlsx
+++ b/internas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33309B23-557D-4BE2-A0CA-37F2AA306611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F37C245-0F4A-4CE6-BF20-0E0DC4BE4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{66869CE5-DE32-471E-94BB-D78FF3330AD9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7F59F54-6FF1-4374-8670-795E70382ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__32" localSheetId="0" hidden="1">query!$A$1:$H$9</definedName>
+    <definedName name="query__35" localSheetId="0" hidden="1">query!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{E7BCEDDB-745B-4F9D-AD99-3A6AFD4C84F6}" odcFile="C:\Users\thiago.junior\Downloads\query (32).iqy" keepAlive="1" name="query (32)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{3CDEF279-2278-4F19-941F-8407CEBA1B1A}" odcFile="C:\Users\thiago.junior\Downloads\query (35).iqy" keepAlive="1" name="query (35)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;B6E86B80-A7B9-412C-ACAC-5CA09C789791&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;dab36273-850b-4961-b84d-87728bb8480d&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>Título</t>
   </si>
@@ -141,6 +141,32 @@
 Período: Todas as Sextas-Feiras do Mês de Dezembro.
 (Dias - 05, 12, 19 e 26 do Mês de Dezembro 2025)
 Mecânica: 8% de cashback em Ipimax na troca de 700 pontos. </t>
+  </si>
+  <si>
+    <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Ação Especial Cashback - Auto Posto Roda Viva De S J Meriti | AÇÃO 3 | IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 6% de cashback em Ipimax - 500 pontos KMV – Abastecimento a partir de R$ 120,00
+Duração: 17.12.2025  (1 DIA)</t>
+  </si>
+  <si>
+    <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - J.A Comercio De Combustiveis Ltda - Epp | RESGATE IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 22.12.2025  (1 DIA)</t>
+  </si>
+  <si>
+    <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - Posto E Oficina Nunes Ltda | RESGATE IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 22.12.2025  (1 DIA)</t>
   </si>
 </sst>
 </file>
@@ -719,7 +745,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (32)" backgroundRefresh="0" connectionId="1" xr16:uid="{725AFFB7-6C1C-4A1C-9AD6-F370499C63E0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (35)" backgroundRefresh="0" connectionId="1" xr16:uid="{4C1A1CC8-886C-4AC1-B942-504E4648F876}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="Título" tableColumnId="1"/>
@@ -736,17 +762,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDD50298-DCB5-490E-9B6A-95F38654D794}" name="Tabela_query__32" displayName="Tabela_query__32" ref="A1:H9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H9" xr:uid="{CDD50298-DCB5-490E-9B6A-95F38654D794}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85869B83-1BED-4156-B51D-B9B843CB7396}" name="Tabela_query__35" displayName="Tabela_query__35" ref="A1:H12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H12" xr:uid="{85869B83-1BED-4156-B51D-B9B843CB7396}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FB40E93C-EF73-4F19-B8F8-A663D2DEA49B}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9FB63203-B229-4CA5-90CE-8091DDD5F3D0}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5E7C4CBA-F630-49CF-8F76-898775EE4C6D}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{42C717CF-BB8E-42F2-8522-B16653D2AD22}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B9359620-7C6A-4AEF-9ED5-3A9B3EA20F00}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{CBDE2F62-8D9F-4F82-9F91-38DDD41BBAEA}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{30623AE4-24F9-4C12-8AC2-C5C6BF329961}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C572A99D-ADFE-4DCC-A7A4-F09B73F127CE}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5739756D-6C12-4191-A4EC-DE1061134F4A}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6ED31D77-6BA7-4913-9CA0-DD141D84476E}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3B224E82-C645-4E3D-AB01-AFCBD6FFCAA0}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A7EED34C-DA11-45B6-8D9C-46E817B3AF9B}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B20B3469-01AD-416C-8F85-05832AE6A964}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{06F8E589-96DF-4346-A798-D7E86E72081D}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{085E6BCA-0C5F-43DA-B917-39E398493357}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{76D1DF09-DD07-4992-B5A0-F6E53E526507}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1068,10 +1094,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D63EEB-7099-4831-BF8D-D0E9CA5B460A}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5613447-5BAE-436A-8554-AF5F4AFCC12B}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1302,6 +1328,78 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>46006.638888888891</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46006.645833333336</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>46006.645833333336</v>
+      </c>
+      <c r="E11" s="4">
+        <v>46006.652777777781</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>46006.652777777781</v>
+      </c>
+      <c r="E12" s="4">
+        <v>46006.659722222219</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/internas.xlsx
+++ b/internas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F37C245-0F4A-4CE6-BF20-0E0DC4BE4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B5E946-F4CB-4963-A0F7-A757F18F9173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7F59F54-6FF1-4374-8670-795E70382ED9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{031CCE1E-CAB7-45A3-A561-8D549E81E2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__35" localSheetId="0" hidden="1">query!$A$1:$H$12</definedName>
+    <definedName name="query__40" localSheetId="0" hidden="1">query!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3CDEF279-2278-4F19-941F-8407CEBA1B1A}" odcFile="C:\Users\thiago.junior\Downloads\query (35).iqy" keepAlive="1" name="query (35)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{4C29D4EE-2F4F-4409-AA04-85270B0F234C}" odcFile="C:\Users\thiago.junior\Downloads\query (40).iqy" keepAlive="1" name="query (40)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;B6E86B80-A7B9-412C-ACAC-5CA09C789791&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;dab36273-850b-4961-b84d-87728bb8480d&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Título</t>
   </si>
@@ -167,6 +167,18 @@
 Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
 Orçamento: Limitado a R$ 1.000,00
 Duração: 22.12.2025  (1 DIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dash Consolida primeira parte </t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Dash Consolida</t>
   </si>
 </sst>
 </file>
@@ -745,7 +757,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (35)" backgroundRefresh="0" connectionId="1" xr16:uid="{4C1A1CC8-886C-4AC1-B942-504E4648F876}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (40)" backgroundRefresh="0" connectionId="1" xr16:uid="{443C9694-D9FD-4C59-823E-0EC9442E0A70}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="Título" tableColumnId="1"/>
@@ -762,17 +774,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85869B83-1BED-4156-B51D-B9B843CB7396}" name="Tabela_query__35" displayName="Tabela_query__35" ref="A1:H12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H12" xr:uid="{85869B83-1BED-4156-B51D-B9B843CB7396}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C27C00E6-CD83-4367-9AF0-CAA46DAD04B4}" name="Tabela_query__40" displayName="Tabela_query__40" ref="A1:H14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H14" xr:uid="{C27C00E6-CD83-4367-9AF0-CAA46DAD04B4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5739756D-6C12-4191-A4EC-DE1061134F4A}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{6ED31D77-6BA7-4913-9CA0-DD141D84476E}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3B224E82-C645-4E3D-AB01-AFCBD6FFCAA0}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A7EED34C-DA11-45B6-8D9C-46E817B3AF9B}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B20B3469-01AD-416C-8F85-05832AE6A964}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{06F8E589-96DF-4346-A798-D7E86E72081D}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{085E6BCA-0C5F-43DA-B917-39E398493357}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{76D1DF09-DD07-4992-B5A0-F6E53E526507}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{583235D6-D717-40F9-80CC-E158BC302B74}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E157A1B4-4247-44D3-A05E-3616E890C764}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{57B9EEDD-E27C-4515-A703-28E5E3384BA6}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{109BC2DD-246A-48C4-A967-41FA41AFE00D}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6917B290-2EC7-4304-BEAA-F4A1250DC9D7}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5AC791B0-C088-46B4-9DA2-FE4CCABD5738}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{271CBF27-F2E8-4CB7-AC1E-44FEE6BBBED9}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{46B62D6F-CC74-411D-B59B-43117CF71224}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1094,15 +1106,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5613447-5BAE-436A-8554-AF5F4AFCC12B}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F334F95-6264-46DF-B33C-283A7A7AF053}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
@@ -1136,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1160,7 +1174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -1184,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -1208,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1232,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -1256,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1280,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1304,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="261" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -1328,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -1352,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="261" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1376,7 +1390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="261" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -1397,6 +1411,54 @@
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45999.375</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45999.708333333336</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
+        <v>46006.375</v>
+      </c>
+      <c r="E14" s="4">
+        <v>46006.75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/internas.xlsx
+++ b/internas.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.junior\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoultracloud-my.sharepoint.com/personal/thiago_junior_ipiranga_ipiranga/Documents/Área de Trabalho/PBI HUB/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B5E946-F4CB-4963-A0F7-A757F18F9173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{877FA569-C3DF-47A8-9AD8-EB7980C104AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{031CCE1E-CAB7-45A3-A561-8D549E81E2D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A84BB38C-C8CD-457A-9938-7C8E2289CF53}"/>
   </bookViews>
   <sheets>
-    <sheet name="query" sheetId="1" r:id="rId1"/>
+    <sheet name="query (45)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="query__40" localSheetId="0" hidden="1">query!$A$1:$H$14</definedName>
+    <definedName name="query__45" localSheetId="0" hidden="1">'query (45)'!$A$1:$H$15</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{4C29D4EE-2F4F-4409-AA04-85270B0F234C}" odcFile="C:\Users\thiago.junior\Downloads\query (40).iqy" keepAlive="1" name="query (40)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
+  <connection id="1" xr16:uid="{F27F2750-05C8-4C79-8C66-E672F33396E2}" odcFile="C:\Users\thiago.junior\Downloads\query (45).iqy" keepAlive="1" name="query (45)" type="5" refreshedVersion="8" minRefreshableVersion="3" saveData="1">
     <dbPr connection="Provider=Microsoft.Office.List.OLEDB.2.0;Data Source=&quot;&quot;;ApplicationName=Excel;Version=12.0.0.0" command="&lt;LIST&gt;&lt;VIEWGUID&gt;B6E86B80-A7B9-412C-ACAC-5CA09C789791&lt;/VIEWGUID&gt;&lt;LISTNAME&gt;dab36273-850b-4961-b84d-87728bb8480d&lt;/LISTNAME&gt;&lt;LISTWEB&gt;https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/_vti_bin&lt;/LISTWEB&gt;&lt;LISTSUBWEB&gt;&lt;/LISTSUBWEB&gt;&lt;ROOTFOLDER&gt;&lt;/ROOTFOLDER&gt;&lt;/LIST&gt;" commandType="5"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Título</t>
   </si>
@@ -179,6 +179,16 @@
   </si>
   <si>
     <t>Dash Consolida</t>
+  </si>
+  <si>
+    <t>Cadastro de ação a pedido de: Pedro Igor Grilo de Oliveira Carvalho
+E-mail - AÇÃO OFERTA CASHBACK | INAUGURAÇÃO BAP GRAVATINHA
+Abaixo estão as informações da ação:
+Precisamos de apoio para colocarmos uma ação para o posto abaixo para amanhã:
+101785 - CENTRO AUTOMOTIVO BAP GRAVATINHA LTDA
+CNPJ: 61620792000191 | SP - Santo Andre
+Jd Bela Vista
+700 pontos por 8% de cashback em todos os combustíveis.</t>
   </si>
 </sst>
 </file>
@@ -757,7 +767,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (40)" backgroundRefresh="0" connectionId="1" xr16:uid="{443C9694-D9FD-4C59-823E-0EC9442E0A70}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="query (45)" backgroundRefresh="0" connectionId="1" xr16:uid="{2CE97D8F-6158-4AE9-BA4D-2B1E0B8CA5A2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="Título" tableColumnId="1"/>
@@ -774,17 +784,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C27C00E6-CD83-4367-9AF0-CAA46DAD04B4}" name="Tabela_query__40" displayName="Tabela_query__40" ref="A1:H14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H14" xr:uid="{C27C00E6-CD83-4367-9AF0-CAA46DAD04B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46B02C56-A9B8-47BC-8868-4D1551F2DA08}" name="Tabela_query__45" displayName="Tabela_query__45" ref="A1:H15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H15" xr:uid="{46B02C56-A9B8-47BC-8868-4D1551F2DA08}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{583235D6-D717-40F9-80CC-E158BC302B74}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E157A1B4-4247-44D3-A05E-3616E890C764}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{57B9EEDD-E27C-4515-A703-28E5E3384BA6}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{109BC2DD-246A-48C4-A967-41FA41AFE00D}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6917B290-2EC7-4304-BEAA-F4A1250DC9D7}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5AC791B0-C088-46B4-9DA2-FE4CCABD5738}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{271CBF27-F2E8-4CB7-AC1E-44FEE6BBBED9}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{46B62D6F-CC74-411D-B59B-43117CF71224}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A9052C93-91B9-4607-8651-BAFF355D5669}" uniqueName="Title" name="Título" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6E4AC2B7-1487-4826-81BD-EE281CD2E727}" uniqueName="Description" name="Descrição" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7592A79A-F925-45C2-9F33-303FF2745DB1}" uniqueName="Category0" name="Categoria" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AD275E39-871D-4321-9022-4E3E15660ACA}" uniqueName="StartDate" name="Data de início" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B479ED6D-894D-4154-8C58-378619E7BFEC}" uniqueName="DueDate" name="Data fim" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E268B73D-C82B-49D2-9B00-D9FACFEEC550}" uniqueName="Analista" name="Analista" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{BFE049A3-43C1-471F-A6FE-BC39232E3ACD}" uniqueName="FSObjType" name="Tipo de Item" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{284A2E90-1D7E-4D2D-AE38-F60948807FC8}" uniqueName="FileDirRef" name="Caminho" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1106,12 +1116,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F334F95-6264-46DF-B33C-283A7A7AF053}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB7339E-A425-48C0-A27E-CDC6596DF73D}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1462,6 +1470,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>46009.631944444445</v>
+      </c>
+      <c r="E15" s="4">
+        <v>46009.635416666664</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/internas.xlsx
+++ b/internas.xlsx
@@ -8,10 +8,12 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Consolida Torre | Requisições I"/>
-    <sheet r:id="rId4" name="Consolida_Torre___Requisições_I" sheetId="2"/>
+    <sheet r:id="rId4" sheetId="2" name="Consolida_Torre___Requisições_I"/>
+    <sheet r:id="rId5" sheetId="3" name="Consolida_Torre___Requisições_1"/>
+    <sheet r:id="rId6" name="Consolida_Torre___Requisições_2" sheetId="4"/>
   </sheets>
   <definedNames>
-    <definedName name="Consolida_Torre___Requisições_Internas">'Consolida_Torre___Requisições_I'!$A$1:$X$15</definedName>
+    <definedName name="Consolida_Torre___Requisições_Internas">'Consolida_Torre___Requisições_2'!$A$1:$X$15</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -2792,4 +2794,2732 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Título</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Pressione Delete para excluir o ícone.</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>ID de Ativo de Conformidade</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Data de início</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Data fim</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Solicitante</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo de Conteúdo</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Aplicativo Criado por</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Aplicativo Modificado por</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Anexos</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>ID da Instância do Fluxo de Trabalho</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo de Arquivo</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Modificado</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>Criado</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>Criado por</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>Modificado por</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>Caminho da URL</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Caminho</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo de Item</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>URL Absoluta Codificada</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail - Cadastro ação de Cashback - GRUPO ROBERTAO
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 700 pontos KMV – Linha IPIMAX
+Duração: 12.12.2025 e 19.12.2025  (2 DIAS)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G2" s="9">
+        <v>46002.4166666667</v>
+      </c>
+      <c r="H2" s="9">
+        <v>46002.4236111111</v>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q2" s="9">
+        <v>46006.4059953704</v>
+      </c>
+      <c r="R2" s="9">
+        <v>46003.4460532407</v>
+      </c>
+      <c r="S2" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T2" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/2_.000</t>
+        </is>
+      </c>
+      <c r="V2" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/2_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gabriel Monteiro Cardoso
+E-mail: KMV | Ação Cashback Especial Fim de Ano
+Ação:
+Que ocorrerá nos dias
+(i)                  18/12
+(ii)                26/12
+(iii)              27/12
+Mecânica: 8% de Cashback em Ipimax na troca de 700 pontos. 
+Abrangência: Nacional</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G3" s="9">
+        <v>46001.6944444444</v>
+      </c>
+      <c r="H3" s="9">
+        <v>46001.7013888889</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q3" s="9">
+        <v>46006.4060648148</v>
+      </c>
+      <c r="R3" s="9">
+        <v>46003.448125</v>
+      </c>
+      <c r="S3" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T3" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U3" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/3_.000</t>
+        </is>
+      </c>
+      <c r="V3" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W3" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/3_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gisele Sant Anna Machado
+E-mail: CASHBACK DIFERENCIADO | Plano de Expansão KMV (8º grupo)
+Ação:
+Abrangência: Base em anexo (16 postos)
+Mecânica: 8% de cashback em Ipimax = 700 pontos KMV
+Duração: Todas as sextas até dezembro/2025
+·         Dezembro: 5, 12, 19 e 26</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G4" s="9">
+        <v>45995.625</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45995.6319444444</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q4" s="9">
+        <v>46006.4061226852</v>
+      </c>
+      <c r="R4" s="9">
+        <v>46003.4506365741</v>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T4" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/4_.000</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W4" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/4_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gisele Sant Anna Machado
+E-mail: CASHBACK ESPECIAL | VENCEDORES DE PASSO FUNDO E SANTA MARIA (Sábados/Dezembro) 
+Ação:
+Abrangência: Base em anexo
+Mecânica: 8% de cashback em Ipimax = 700 pontos KMV
+Duração: Todas os sábados de dezembro/2025
+·         Dezembro: 6, 13, 20 e 27/12</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G5" s="9">
+        <v>45994.6458333333</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45994.6527777778</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q5" s="9">
+        <v>46006.4062037037</v>
+      </c>
+      <c r="R5" s="9">
+        <v>46003.451724537</v>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T5" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/5_.000</t>
+        </is>
+      </c>
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/5_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gisele Sant Anna Machado
+E-mail: CASHBACK ESPECIAL | VENCEDORES DE PASSO FUNDO E SANTA MARIA (Sextas/Dezembro) 
+Ação:
+AAbrangência: Base em anexo
+Mecânica: 8% de cashback em Ipimax = 700 pontos KMV
+Duração: Todas as sextas de dezembro/2025
+·         Dezembro: 5, 12, 19 e 26/12</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G6" s="9">
+        <v>45994.6458333333</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45994.6527777778</v>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q6" s="9">
+        <v>46006.40625</v>
+      </c>
+      <c r="R6" s="9">
+        <v>46003.461724537</v>
+      </c>
+      <c r="S6" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T6" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U6" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/6_.000</t>
+        </is>
+      </c>
+      <c r="V6" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/6_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Isabela Da Rocha Anjos
+E-mail: Ação Inauguração Cashback Posto Confiança 
+Ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 700 pontos KMV – abastecimento mínimo: R$10,00 – Linha IPIMAX
+Orçamento: Limitado a R$ 1.000,00
+Duração: 04.12.2025  (1 DIA)
+ </t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G7" s="9">
+        <v>45994.625</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45994.6319444444</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q7" s="9">
+        <v>46006.4063425926</v>
+      </c>
+      <c r="R7" s="9">
+        <v>46003.4771527778</v>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/7_.000</t>
+        </is>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/7_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - Auto Posto Amazonas Eireli
+Ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 08.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G8" s="9">
+        <v>45994.625</v>
+      </c>
+      <c r="H8" s="9">
+        <v>45994.6319444444</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q8" s="9">
+        <v>46006.406400463</v>
+      </c>
+      <c r="R8" s="9">
+        <v>46003.4778472222</v>
+      </c>
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T8" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/8_.000</t>
+        </is>
+      </c>
+      <c r="V8" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/8_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gabriel Monteiro Cardoso
+E-mail: KMV | Ação IPIMAX VERÃO SC
+Ação:
+Estamos solicitando o Cadastro da Ação de Ação IPIMAX VERÃO SC, para todos os postos da GN Urbano Florianópolis.
+Período: Todas as Sextas-Feiras do Mês de Dezembro.
+(Dias - 05, 12, 19 e 26 do Mês de Dezembro 2025)
+Mecânica: 8% de cashback em Ipimax na troca de 700 pontos. </t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G9" s="9">
+        <v>45992.6666666667</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45992.6736111111</v>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q9" s="9">
+        <v>46006.4064930556</v>
+      </c>
+      <c r="R9" s="9">
+        <v>46003.4784837963</v>
+      </c>
+      <c r="S9" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T9" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U9" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/9_.000</t>
+        </is>
+      </c>
+      <c r="V9" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/9_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Ação Especial Cashback - Auto Posto Roda Viva De S J Meriti | AÇÃO 3 | IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 6% de cashback em Ipimax - 500 pontos KMV – Abastecimento a partir de R$ 120,00
+Duração: 17.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G10" s="9">
+        <v>46006.6388888889</v>
+      </c>
+      <c r="H10" s="9">
+        <v>46006.6458333333</v>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q10" s="9">
+        <v>46006.6441319444</v>
+      </c>
+      <c r="R10" s="9">
+        <v>46006.6441319444</v>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/10_.000</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/10_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - J.A Comercio De Combustiveis Ltda - Epp | RESGATE IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 22.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G11" s="9">
+        <v>46006.6458333333</v>
+      </c>
+      <c r="H11" s="9">
+        <v>46006.6527777778</v>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q11" s="9">
+        <v>46006.6536689815</v>
+      </c>
+      <c r="R11" s="9">
+        <v>46006.6536689815</v>
+      </c>
+      <c r="S11" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T11" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/11_.000</t>
+        </is>
+      </c>
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/11_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - Posto E Oficina Nunes Ltda | RESGATE IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 22.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G12" s="9">
+        <v>46006.6527777778</v>
+      </c>
+      <c r="H12" s="9">
+        <v>46006.6597222222</v>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q12" s="9">
+        <v>46006.6544212963</v>
+      </c>
+      <c r="R12" s="9">
+        <v>46006.6544212963</v>
+      </c>
+      <c r="S12" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T12" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/12_.000</t>
+        </is>
+      </c>
+      <c r="V12" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/12_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Dash Consolida primeira parte </t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="G13" s="9">
+        <v>45999.375</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45999.7083333333</v>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Thiago</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/Attachments/13/FINAL (3).html</t>
+        </is>
+      </c>
+      <c r="Q13" s="9">
+        <v>46007.7030324074</v>
+      </c>
+      <c r="R13" s="9">
+        <v>46007.7030324074</v>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="T13" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/13_.000</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/13_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Dash Consolida</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="G14" s="9">
+        <v>46006.375</v>
+      </c>
+      <c r="H14" s="9">
+        <v>46006.75</v>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Thiago</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q14" s="9">
+        <v>46007.7037268519</v>
+      </c>
+      <c r="R14" s="9">
+        <v>46007.7037268519</v>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/14_.000</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/14_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido de: Pedro Igor Grilo de Oliveira Carvalho
+E-mail - AÇÃO OFERTA CASHBACK | INAUGURAÇÃO BAP GRAVATINHA
+Abaixo estão as informações da ação:
+Precisamos de apoio para colocarmos uma ação para o posto abaixo para amanhã:
+101785 - CENTRO AUTOMOTIVO BAP GRAVATINHA LTDA
+CNPJ: 61620792000191 | SP - Santo Andre
+Jd Bela Vista
+700 pontos por 8% de cashback em todos os combustíveis.</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G15" s="9">
+        <v>46009.6319444444</v>
+      </c>
+      <c r="H15" s="9">
+        <v>46009.6354166667</v>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q15" s="9">
+        <v>46009.6373263889</v>
+      </c>
+      <c r="R15" s="9">
+        <v>46009.6373263889</v>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/15_.000</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/15_.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Título</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Pressione Delete para excluir o ícone.</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>ID de Ativo de Conformidade</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Data de início</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Data fim</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Solicitante</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo de Conteúdo</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Aplicativo Criado por</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Aplicativo Modificado por</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Anexos</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>ID da Instância do Fluxo de Trabalho</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo de Arquivo</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Modificado</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>Criado</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>Criado por</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>Modificado por</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>Caminho da URL</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Caminho</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo de Item</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>URL Absoluta Codificada</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail - Cadastro ação de Cashback - GRUPO ROBERTAO
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 700 pontos KMV – Linha IPIMAX
+Duração: 12.12.2025 e 19.12.2025  (2 DIAS)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G2" s="9">
+        <v>46002.4166666667</v>
+      </c>
+      <c r="H2" s="9">
+        <v>46002.4236111111</v>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q2" s="9">
+        <v>46006.4059953704</v>
+      </c>
+      <c r="R2" s="9">
+        <v>46003.4460532407</v>
+      </c>
+      <c r="S2" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T2" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/2_.000</t>
+        </is>
+      </c>
+      <c r="V2" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/2_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gabriel Monteiro Cardoso
+E-mail: KMV | Ação Cashback Especial Fim de Ano
+Ação:
+Que ocorrerá nos dias
+(i)                  18/12
+(ii)                26/12
+(iii)              27/12
+Mecânica: 8% de Cashback em Ipimax na troca de 700 pontos. 
+Abrangência: Nacional</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G3" s="9">
+        <v>46001.6944444444</v>
+      </c>
+      <c r="H3" s="9">
+        <v>46001.7013888889</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q3" s="9">
+        <v>46006.4060648148</v>
+      </c>
+      <c r="R3" s="9">
+        <v>46003.448125</v>
+      </c>
+      <c r="S3" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T3" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U3" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/3_.000</t>
+        </is>
+      </c>
+      <c r="V3" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W3" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/3_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gisele Sant Anna Machado
+E-mail: CASHBACK DIFERENCIADO | Plano de Expansão KMV (8º grupo)
+Ação:
+Abrangência: Base em anexo (16 postos)
+Mecânica: 8% de cashback em Ipimax = 700 pontos KMV
+Duração: Todas as sextas até dezembro/2025
+·         Dezembro: 5, 12, 19 e 26</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G4" s="9">
+        <v>45995.625</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45995.6319444444</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q4" s="9">
+        <v>46006.4061226852</v>
+      </c>
+      <c r="R4" s="9">
+        <v>46003.4506365741</v>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T4" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/4_.000</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W4" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/4_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gisele Sant Anna Machado
+E-mail: CASHBACK ESPECIAL | VENCEDORES DE PASSO FUNDO E SANTA MARIA (Sábados/Dezembro) 
+Ação:
+Abrangência: Base em anexo
+Mecânica: 8% de cashback em Ipimax = 700 pontos KMV
+Duração: Todas os sábados de dezembro/2025
+·         Dezembro: 6, 13, 20 e 27/12</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G5" s="9">
+        <v>45994.6458333333</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45994.6527777778</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q5" s="9">
+        <v>46006.4062037037</v>
+      </c>
+      <c r="R5" s="9">
+        <v>46003.451724537</v>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T5" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/5_.000</t>
+        </is>
+      </c>
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/5_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gisele Sant Anna Machado
+E-mail: CASHBACK ESPECIAL | VENCEDORES DE PASSO FUNDO E SANTA MARIA (Sextas/Dezembro) 
+Ação:
+AAbrangência: Base em anexo
+Mecânica: 8% de cashback em Ipimax = 700 pontos KMV
+Duração: Todas as sextas de dezembro/2025
+·         Dezembro: 5, 12, 19 e 26/12</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G6" s="9">
+        <v>45994.6458333333</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45994.6527777778</v>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q6" s="9">
+        <v>46006.40625</v>
+      </c>
+      <c r="R6" s="9">
+        <v>46003.461724537</v>
+      </c>
+      <c r="S6" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T6" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U6" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/6_.000</t>
+        </is>
+      </c>
+      <c r="V6" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/6_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Isabela Da Rocha Anjos
+E-mail: Ação Inauguração Cashback Posto Confiança 
+Ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 700 pontos KMV – abastecimento mínimo: R$10,00 – Linha IPIMAX
+Orçamento: Limitado a R$ 1.000,00
+Duração: 04.12.2025  (1 DIA)
+ </t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G7" s="9">
+        <v>45994.625</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45994.6319444444</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q7" s="9">
+        <v>46006.4063425926</v>
+      </c>
+      <c r="R7" s="9">
+        <v>46003.4771527778</v>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/7_.000</t>
+        </is>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/7_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - Auto Posto Amazonas Eireli
+Ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 08.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G8" s="9">
+        <v>45994.625</v>
+      </c>
+      <c r="H8" s="9">
+        <v>45994.6319444444</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q8" s="9">
+        <v>46006.406400463</v>
+      </c>
+      <c r="R8" s="9">
+        <v>46003.4778472222</v>
+      </c>
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T8" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/8_.000</t>
+        </is>
+      </c>
+      <c r="V8" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/8_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da: Gabriel Monteiro Cardoso
+E-mail: KMV | Ação IPIMAX VERÃO SC
+Ação:
+Estamos solicitando o Cadastro da Ação de Ação IPIMAX VERÃO SC, para todos os postos da GN Urbano Florianópolis.
+Período: Todas as Sextas-Feiras do Mês de Dezembro.
+(Dias - 05, 12, 19 e 26 do Mês de Dezembro 2025)
+Mecânica: 8% de cashback em Ipimax na troca de 700 pontos. </t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G9" s="9">
+        <v>45992.6666666667</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45992.6736111111</v>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q9" s="9">
+        <v>46006.4064930556</v>
+      </c>
+      <c r="R9" s="9">
+        <v>46003.4784837963</v>
+      </c>
+      <c r="S9" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T9" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U9" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/9_.000</t>
+        </is>
+      </c>
+      <c r="V9" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/9_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Ação Especial Cashback - Auto Posto Roda Viva De S J Meriti | AÇÃO 3 | IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 6% de cashback em Ipimax - 500 pontos KMV – Abastecimento a partir de R$ 120,00
+Duração: 17.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G10" s="9">
+        <v>46006.6388888889</v>
+      </c>
+      <c r="H10" s="9">
+        <v>46006.6458333333</v>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q10" s="9">
+        <v>46006.6441319444</v>
+      </c>
+      <c r="R10" s="9">
+        <v>46006.6441319444</v>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/10_.000</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/10_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - J.A Comercio De Combustiveis Ltda - Epp | RESGATE IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 22.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G11" s="9">
+        <v>46006.6458333333</v>
+      </c>
+      <c r="H11" s="9">
+        <v>46006.6527777778</v>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q11" s="9">
+        <v>46006.6536689815</v>
+      </c>
+      <c r="R11" s="9">
+        <v>46006.6536689815</v>
+      </c>
+      <c r="S11" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T11" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/11_.000</t>
+        </is>
+      </c>
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/11_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido da Isabela Da Rocha Anjos
+E-mail: Cadastro Ação de Cashback - Posto E Oficina Nunes Ltda | RESGATE IPIRANGA TOP
+Abaixo estão as informações da ação:
+Abrangência: Base em anexo 
+Mecânica: 8 de cashback - 500 pontos KMV – Sem abastecimento mínimo – Considerar todos os combustíveis
+Orçamento: Limitado a R$ 1.000,00
+Duração: 22.12.2025  (1 DIA)</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G12" s="9">
+        <v>46006.6527777778</v>
+      </c>
+      <c r="H12" s="9">
+        <v>46006.6597222222</v>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q12" s="9">
+        <v>46006.6544212963</v>
+      </c>
+      <c r="R12" s="9">
+        <v>46006.6544212963</v>
+      </c>
+      <c r="S12" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T12" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/12_.000</t>
+        </is>
+      </c>
+      <c r="V12" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/12_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Dash Consolida primeira parte </t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="G13" s="9">
+        <v>45999.375</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45999.7083333333</v>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Thiago</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/Attachments/13/FINAL (3).html</t>
+        </is>
+      </c>
+      <c r="Q13" s="9">
+        <v>46007.7030324074</v>
+      </c>
+      <c r="R13" s="9">
+        <v>46007.7030324074</v>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="T13" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/13_.000</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/13_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Dash Consolida</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Desenvolvimento</t>
+        </is>
+      </c>
+      <c r="G14" s="9">
+        <v>46006.375</v>
+      </c>
+      <c r="H14" s="9">
+        <v>46006.75</v>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Thiago</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q14" s="9">
+        <v>46007.7037268519</v>
+      </c>
+      <c r="R14" s="9">
+        <v>46007.7037268519</v>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t>Thiago Junior</t>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/14_.000</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/14_.000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de ação a pedido de: Pedro Igor Grilo de Oliveira Carvalho
+E-mail - AÇÃO OFERTA CASHBACK | INAUGURAÇÃO BAP GRAVATINHA
+Abaixo estão as informações da ação:
+Precisamos de apoio para colocarmos uma ação para o posto abaixo para amanhã:
+101785 - CENTRO AUTOMOTIVO BAP GRAVATINHA LTDA
+CNPJ: 61620792000191 | SP - Santo Andre
+Jd Bela Vista
+700 pontos por 8% de cashback em todos os combustíveis.</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Cadastro de Ações</t>
+        </is>
+      </c>
+      <c r="G15" s="9">
+        <v>46009.6319444444</v>
+      </c>
+      <c r="H15" s="9">
+        <v>46009.6354166667</v>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>Desenv Jornadas Digitais</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Larissa</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>OneDrive SyncEngine</t>
+        </is>
+      </c>
+      <c r="Q15" s="9">
+        <v>46009.6373263889</v>
+      </c>
+      <c r="R15" s="9">
+        <v>46009.6373263889</v>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>Larissa Araujo Santos</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas/15_.000</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t>personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida   Demandas Internas</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>https://grupoultracloud-my.sharepoint.com/personal/roberta_rocha_ipiranga_ipiranga/Lists/Consolida%20%20%20Demandas%20Internas/15_.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>